--- a/asset/Cari7.xlsx
+++ b/asset/Cari7.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -94,6 +94,18 @@
         <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9933"/>
+        <bgColor rgb="00FF9933"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE4B2"/>
+        <bgColor rgb="00FFE4B2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -113,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -130,6 +142,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -140,6 +155,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -510,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,10 +536,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="69" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="65" customWidth="1" min="4" max="4"/>
+    <col width="93" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,441 +564,1238 @@
           <t>Konum</t>
         </is>
       </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Kaynak</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive60 M Sport Pro Two Tone Individual</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>€ 104.489,-</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>10.300 km</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>Verkaufsteam BayernCar • DE-86343 Königsbrunn</t>
         </is>
       </c>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive 60 Msport</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>€ 103.900,-</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>22.802 km</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>Werner Lemmens • BE-8792 Desselgem (Waregem)</t>
         </is>
       </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 i7 xDrive60</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>€ 102.900,-</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>14.033 km</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>Bram Lootens • BE-9700 Oudenaarde</t>
         </is>
       </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive M70 Executive Lounge B&amp;W UPE205</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>€ 119.989,-</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>4.964 km</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>Verkaufsteam BayernCar • DE-86343 Königsbrunn</t>
         </is>
       </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 M70 xDrive Pano Sky Leas. ab 1.199EUR o. Anz.</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>€ 128.430,-</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>17.996 km</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>- - • DE-46149 Oberhausen</t>
         </is>
       </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive60 M Sport Massage Bowers SkyLounge ACC HUD</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>€ 107.990,-</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>8.964 km</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>Arthur Blondeel • BE-8830 Gits</t>
         </is>
       </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 eDrive50 Limousine B&amp;W Surround Pano. Sky Lounge A</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>€ 97.500,-</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>5.650 km</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>Edmund Joas • DE-89407 Dillingen</t>
         </is>
       </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 
+xDrive60</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>€ 129.900,-</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>5.000 km</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>Thomas Harmtodt • AT-8232 Grafendorf</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive60 *Pronta consegna</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>€ 85.900,-</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>KM Yok</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>Marco Magri • IT-10154 Torino</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive60 Msport</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>€ 136.471,-</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>KM Yok</t>
-        </is>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>Responsabile Vendite Responsabile Vendite • IT-05100 Terni - Tr</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 Msport|Bowers&amp;Wilkins|IconicGl</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>€ 109.950,-</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>4.051 km</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
         <is>
           <t>Xavier Lemoine/ Maxim Eeckels • BE-2870 Puurs</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 M70 xDrive B&amp;W-SKY LOUNGE-ICONIC GLOW-SOFTCLOSE</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>€ 129.850,-</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>5.250 km</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D13" s="10" t="inlineStr">
         <is>
           <t>Steven Barke • DE-83209 Prien am Chiemsee</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="E13" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive 60 M Sport Pro</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>€ 107.000,-</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>11.322 km</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>Contáctanos en: • ES-28043 MADRID</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 M70 xDrive Limousine Elektro</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>€ 164.990,-</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>3 km</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="D15" s="10" t="inlineStr">
         <is>
           <t>Kundenkontaktcenter • DE-76227 Karlsruhe</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="E15" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive60 Limousine M Sportpaket DAB AHK</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>€ 112.900,-</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>23.028 km</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
+      <c r="D16" s="10" t="inlineStr">
         <is>
           <t>DE-15745 Wildau</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive60 544ch M Sport</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>€ 179.900,-</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>100 km</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>FR-30000 Nimes</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDr.60 M-SportpPro.Panod.Execut.Lounge.Sitzbel.</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>€ 103.999,-</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>26.600 km</t>
         </is>
       </c>
-      <c r="D17" s="9" t="inlineStr">
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t>Patric Zecha • DE-89359 Kötz</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 i7 eDrive50 Model M Sport</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>€ 107.950,-</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>12.510 km</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
+      <c r="D19" s="10" t="inlineStr">
         <is>
           <t>Bram Lootens • BE-9700 Oudenaarde</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="E19" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>BMW i7 
 xDrive 60 MSportPro|Execut|Connois|SkyL|B&amp;O|</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>€ 131.890,-</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>6.750 km</t>
         </is>
       </c>
-      <c r="D19" s="9" t="inlineStr">
+      <c r="D20" s="10" t="inlineStr">
         <is>
           <t>Alexander Schreck • DE-72766 Reutlingen</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>BMW i7 
-xDrive60 M Pack</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>€ 110.000,-</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>2.500 km</t>
-        </is>
-      </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>Verkaufsteam Gelting • DE-82538 Geretsried - Gelting</t>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>AutoScout24</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>GesponsertBMW i7 M70*PanoSky*Fond-Entert*Execut.-Pack*Kristall</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr"/>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
+        <is>
+          <t>car concept mobility GmbH
+(44)
+Tel.: +49 (0)6441 949292
+35579 Wetzlar</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>BMW Bmw 7.30 lci</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>89233 Neu Ulm, Privatanbieter</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>NEU
+BMW e3 3.0SI</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>129.400 €</t>
+        </is>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>53879 Euskirchen, Privatanbieter</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive 60 *Pure Excellence*Individual*PanoSky</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>44.000 €</t>
+        </is>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>AS trade GmbH
+(14)
+AT-4040 Linz</t>
+        </is>
+      </c>
+      <c r="E24" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>Gesponsert
+NEU
+BMW i7 xDrive60 M SPORT PANO SKY LOUNGE B&amp;W KRISTALL</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>17.500 €</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>Müller-Dynamic GmbH
+(2)
+66679 Losheim am See</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>GesponsertBMW i7 xDrive60 M-Sport SHZ HUD Pano 360 Kam LED</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>84.800 €</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>Autohaus Rolf Horn GmbH
+(14)
+50389 Wesseling</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>Gesponsert
+NEU
+BMW i7 xDrive60 M Sport Pro Two Tone Individual</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>108.990 €</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D27" s="10" t="inlineStr">
+        <is>
+          <t>BayernCar GmbH
+(63)
+86343 Königsbrunn</t>
+        </is>
+      </c>
+      <c r="E27" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>NEU
+BMW i7 Pure Excellence B&amp;W|Multikontursitze|Panorama</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>113.310 €</t>
+        </is>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>MeinAuto.de Gebrauchtwagen
+(297)
+85748 Garching bei München</t>
+        </is>
+      </c>
+      <c r="E28" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 Limousine M Sportpaket +Massage</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>104.489 €</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D29" s="10" t="inlineStr">
+        <is>
+          <t>Autohaus Weigl GmbH, BMW und Citroën Vertragspartner
+(49)
+06217 Merseburg</t>
+        </is>
+      </c>
+      <c r="E29" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>NEU
+BMW i7 xDrive60 M Sport Pro Two Tone Individual</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>79.973 €</t>
+        </is>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>BayernCar GmbH
+(63)
+86343 Königsbrunn</t>
+        </is>
+      </c>
+      <c r="E30" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 Limousine DAB Aktivlenkung</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>95.945 €</t>
+        </is>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D31" s="10" t="inlineStr">
+        <is>
+          <t>Autohaus Michael Schmidt GmbH, BMW Vertragshändler
+(93)
+82538 Geretsried - Gelting</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 Limousine</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>104.489 €</t>
+        </is>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>Autohaus Richard Hable GmbH
+(9)
+94481 Grafenau</t>
+        </is>
+      </c>
+      <c r="E32" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 Pano Sky,ExecutiveLounge</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>81.490 €</t>
+        </is>
+      </c>
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>WELLER Premium GmbH - BMW Vertragshändler - MINI Servicebetrieb
+(28)
+29410 Salzwedel-Brietz</t>
+        </is>
+      </c>
+      <c r="E33" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive M70 Executive Lounge B&amp;W UPE205</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>93.800 €</t>
+        </is>
+      </c>
+      <c r="C34" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>BayernCar GmbH
+(63)
+86343 Königsbrunn</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 M Sportpaket Innovationsp. AHK</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>86.950 €</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>AHAG Münsterland GmbH
+(40)
+48653 Coesfeld</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 LR ab 815,- br.o.Anz./36Mon. 5'km p.</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>119.989 €</t>
+        </is>
+      </c>
+      <c r="C36" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>Fett &amp; Wirtz Automobile GmbH &amp; Co. KG
+(90)
+47608 Geldern</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 TV-Fond-Entertainment|SkyLounge</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>93.890 €</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>Fett &amp; Wirtz Automobile GmbH &amp; Co KG
+(154)
+47441 Moers</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 M SPORT PRO+FOND ENTERTAINMENT+PANO</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>91.890 €</t>
+        </is>
+      </c>
+      <c r="C38" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
+        <is>
+          <t>Autohaus Kruft GmbH
+(32)
+46117 Oberhausen</t>
+        </is>
+      </c>
+      <c r="E38" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>NEU
+BMW i7 M60xDrive M-SportPRO KinoTV Lounge 200559</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>88.888 €</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D39" s="10" t="inlineStr">
+        <is>
+          <t>bmw-jw-marhoffer GmbH
+(20)
+69242 Mühlhausen</t>
+        </is>
+      </c>
+      <c r="E39" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 LR 935,- br.o.Anz. 36Mon/10'Km p.A.</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>97.888 €</t>
+        </is>
+      </c>
+      <c r="C40" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D40" s="10" t="inlineStr">
+        <is>
+          <t>Fett &amp; Wirtz Automobile GmbH &amp; Co KG
+(146)
+47533 Kleve</t>
+        </is>
+      </c>
+      <c r="E40" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 60 M Sport TwoTone Individual Fondentertainme</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>93.875 €</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D41" s="10" t="inlineStr">
+        <is>
+          <t>Autohaus Richard Wagner GmbH BMW/MINI Vertragshändler
+(23)
+85614 Kirchseeon</t>
+        </is>
+      </c>
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 M Sport Pro|Sitzbelüftung&amp;Massage</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>101.900 €</t>
+        </is>
+      </c>
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>Fett &amp; Wirtz Automobile GmbH &amp; Co. KG
+(101)
+46485 Wesel</t>
+        </is>
+      </c>
+      <c r="E42" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 M Sportgpaket Pro*21 Zoll*Massage*Mu</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>89.800 €</t>
+        </is>
+      </c>
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D43" s="10" t="inlineStr">
+        <is>
+          <t>Autohaus Michael Schmidt GmbH, BMW Vertragshändler
+(93)
+82538 Geretsried - Gelting</t>
+        </is>
+      </c>
+      <c r="E43" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>BMW i7 xDrive60 LR 1.109,- br.o.Anz./36 Mon 10' km p</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>109.745 €</t>
+        </is>
+      </c>
+      <c r="C44" s="12" t="inlineStr">
+        <is>
+          <t>KM Yok</t>
+        </is>
+      </c>
+      <c r="D44" s="10" t="inlineStr">
+        <is>
+          <t>Fett &amp; Wirtz Automobile GmbH &amp; Co KG
+(154)
+47441 Moers</t>
+        </is>
+      </c>
+      <c r="E44" s="11" t="inlineStr">
+        <is>
+          <t>Mobile.de</t>
         </is>
       </c>
     </row>
